--- a/data/9-profiles-20-21.xlsx
+++ b/data/9-profiles-20-21.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Данные для обработки" sheetId="1" r:id="rId1"/>
@@ -550,7 +550,18 @@
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -3796,8 +3807,8 @@
   </sheetPr>
   <dimension ref="A1:C13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="A1:C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3911,9 +3922,9 @@
   </sheetPr>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="P49" sqref="P49"/>
+      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7058,6 +7069,11 @@
       <c r="J73" s="6"/>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="C3:M64">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>10</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>

--- a/data/9-profiles-20-21.xlsx
+++ b/data/9-profiles-20-21.xlsx
@@ -14,15 +14,16 @@
   <sheets>
     <sheet name="Данные для обработки" sheetId="1" r:id="rId1"/>
     <sheet name="Результат" sheetId="4" r:id="rId2"/>
-    <sheet name="Промежуточные вычисления" sheetId="3" r:id="rId3"/>
-    <sheet name="Ответы на форму (1)" sheetId="2" r:id="rId4"/>
+    <sheet name="Распределение детей" sheetId="5" r:id="rId3"/>
+    <sheet name="Промежуточные вычисления" sheetId="3" r:id="rId4"/>
+    <sheet name="Ответы на форму (1)" sheetId="2" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="814" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="963" uniqueCount="168">
   <si>
     <t>Фамилия ученика</t>
   </si>
@@ -460,6 +461,72 @@
   </si>
   <si>
     <t>Английский, Биология, География, Физика</t>
+  </si>
+  <si>
+    <t>ГРУППА ПРЕДМЕТОВ 1</t>
+  </si>
+  <si>
+    <t>ГРУППА ПРЕДМЕТОВ 2</t>
+  </si>
+  <si>
+    <t>Абрамов</t>
+  </si>
+  <si>
+    <t>Алексеева</t>
+  </si>
+  <si>
+    <t>Балашова</t>
+  </si>
+  <si>
+    <t>Балаян</t>
+  </si>
+  <si>
+    <t>Башкирцева</t>
+  </si>
+  <si>
+    <t>Белец</t>
+  </si>
+  <si>
+    <t>Борисов</t>
+  </si>
+  <si>
+    <t>Бородкина</t>
+  </si>
+  <si>
+    <t>Вергасова</t>
+  </si>
+  <si>
+    <t>Ксенофонтова</t>
+  </si>
+  <si>
+    <t>Лифшиц</t>
+  </si>
+  <si>
+    <t>Марамчина</t>
+  </si>
+  <si>
+    <t>Мкртчян</t>
+  </si>
+  <si>
+    <t>Попова</t>
+  </si>
+  <si>
+    <t>Столяров</t>
+  </si>
+  <si>
+    <t>КОНФЛИКТ!</t>
+  </si>
+  <si>
+    <t>Рябчиков</t>
+  </si>
+  <si>
+    <t>Филимонов</t>
+  </si>
+  <si>
+    <t>Марченко</t>
+  </si>
+  <si>
+    <t>Саукконен</t>
   </si>
 </sst>
 </file>
@@ -516,7 +583,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -524,11 +591,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -544,6 +688,33 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3808,7 +3979,7 @@
   <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="A12" sqref="A12:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3918,13 +4089,599 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:J29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" style="14" customWidth="1"/>
+    <col min="3" max="4" width="13.7109375" style="13" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" style="15" customWidth="1"/>
+    <col min="6" max="6" width="13.7109375" style="13" customWidth="1"/>
+    <col min="7" max="8" width="13.7109375" customWidth="1"/>
+    <col min="9" max="9" width="13.7109375" style="15" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B1" s="16" t="s">
+        <v>146</v>
+      </c>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="19" t="s">
+        <v>147</v>
+      </c>
+      <c r="G1" s="19"/>
+      <c r="H1" s="19"/>
+      <c r="I1" s="19"/>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B2" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="I2" s="22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="25" t="s">
+        <v>37</v>
+      </c>
+      <c r="C3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="D3" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="E3" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="F3" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="I3" s="24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B4" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>41</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>155</v>
+      </c>
+      <c r="F4" s="23" t="s">
+        <v>149</v>
+      </c>
+      <c r="G4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="I4" s="24" t="s">
+        <v>149</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B5" s="25" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="F5" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="G5" s="10"/>
+      <c r="H5" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="I5" s="24"/>
+      <c r="J5" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="25" t="s">
+        <v>162</v>
+      </c>
+      <c r="C6" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="E6" s="24" t="s">
+        <v>157</v>
+      </c>
+      <c r="F6" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="G6" s="10"/>
+      <c r="H6" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B7" s="25" t="s">
+        <v>97</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="F7" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I7" s="24" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B8" s="25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="F8" s="23"/>
+      <c r="G8" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>65</v>
+      </c>
+      <c r="I8" s="24" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="F9" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="I9" s="24" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="25" t="s">
+        <v>109</v>
+      </c>
+      <c r="C10" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="F10" s="23" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="H10" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="I10" s="24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="25" t="s">
+        <v>149</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>161</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="H11" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="I11" s="24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A12" s="10"/>
+      <c r="B12" s="25" t="s">
+        <v>68</v>
+      </c>
+      <c r="C12" s="23"/>
+      <c r="F12" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="H12" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="I12" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B13" s="25" t="s">
+        <v>150</v>
+      </c>
+      <c r="C13" s="23" t="s">
+        <v>70</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="F13" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="I13" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A14" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="E14" s="24"/>
+      <c r="F14" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="I14" s="24" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A15" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B15" s="25" t="s">
+        <v>165</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="I15" s="24" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A16" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="B16" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="I16" s="24" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B17" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="C17" s="23" t="s">
+        <v>113</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>111</v>
+      </c>
+      <c r="E17" s="24" t="s">
+        <v>166</v>
+      </c>
+      <c r="F17" s="23"/>
+      <c r="H17" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="I17" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B18" s="25" t="s">
+        <v>164</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="F18" s="23" t="s">
+        <v>160</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="I18" s="24" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B19" s="25" t="s">
+        <v>152</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="F19" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D20" s="23" t="s">
+        <v>151</v>
+      </c>
+      <c r="F20" s="23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D21" s="23" t="s">
+        <v>49</v>
+      </c>
+      <c r="F21" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="H21" s="10"/>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D22" s="23" t="s">
+        <v>51</v>
+      </c>
+      <c r="F22" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F23" s="23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F24" s="23" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F25" s="23" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F26" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F27" s="23" t="s">
+        <v>152</v>
+      </c>
+      <c r="H27" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="F28" s="23" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B29" s="26">
+        <f>COUNTA(B3:B28)</f>
+        <v>17</v>
+      </c>
+      <c r="C29" s="26">
+        <f t="shared" ref="C29:I29" si="0">COUNTA(C3:C28)</f>
+        <v>13</v>
+      </c>
+      <c r="D29" s="26">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="E29" s="26">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="F29" s="26">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="G29" s="26">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="H29" s="26">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="I29" s="27">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="B1:E1"/>
+    <mergeCell ref="F1:I1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" verticalDpi="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K11" sqref="K11"/>
+      <selection pane="bottomLeft" activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -7079,7 +7836,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
